--- a/設計書/データベース.xlsx
+++ b/設計書/データベース.xlsx
@@ -5,17 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Nextcloud\開発ノート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seiya\Documents\VSdir\independent_learning_system\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00005089-23F3-4E4E-8FDE-16BA4865FF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B51CEDB-39DB-4815-9834-48E321390A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="ER" sheetId="11" r:id="rId2"/>
     <sheet name="テンプレート" sheetId="1" r:id="rId3"/>
+    <sheet name="t_users" sheetId="12" r:id="rId4"/>
+    <sheet name="t_subject" sheetId="13" r:id="rId5"/>
+    <sheet name="テンプレート (2)" sheetId="14" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="43">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -216,6 +219,104 @@
   </si>
   <si>
     <t>MySQLなど</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名：t_users</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t_subject</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教科情報を持つ</t>
+    <rPh sb="0" eb="2">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hash</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>別途ハッシュ値を持つ</t>
+    <rPh sb="0" eb="2">
+      <t>ベット</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教科名</t>
+    <rPh sb="0" eb="3">
+      <t>キョウカメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名：t_subject</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t_sessions</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッション情報を持つ</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名：t_sessions</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>session_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイムスタンプとユーザー名のハッシュ値</t>
+    <rPh sb="12" eb="13">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>チ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -393,6 +494,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -432,8 +535,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -714,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B329718-D260-4527-8A52-904D0FF365E7}">
-  <dimension ref="B1:D12"/>
+  <dimension ref="B1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -735,16 +836,16 @@
       <c r="C2"/>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1">
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="2:4">
       <c r="B5"/>
@@ -775,10 +876,10 @@
       <c r="C9"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="14"/>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="1" t="s">
@@ -794,6 +895,22 @@
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -833,19 +950,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="8.375" style="19" customWidth="1"/>
-    <col min="3" max="3" width="9" style="20"/>
-    <col min="4" max="4" width="18.25" style="19" customWidth="1"/>
-    <col min="5" max="5" width="9" style="19"/>
-    <col min="6" max="6" width="10.625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="20.125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="35.875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9" style="7"/>
+    <col min="4" max="4" width="18.25" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9" style="6"/>
+    <col min="6" max="6" width="10.625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="20.125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="35.875" style="6" customWidth="1"/>
     <col min="9" max="9" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -859,21 +976,21 @@
       <c r="H1"/>
     </row>
     <row r="2" spans="2:8">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
     </row>
     <row r="3" spans="2:8" ht="19.5" thickBot="1">
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
@@ -1178,7 +1295,7 @@
     <mergeCell ref="B2:E3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C8 C10:C1048576" xr:uid="{CEBF9F73-A87A-4FCD-AA92-DA1F9B321FEF}">
       <formula1>"●"</formula1>
     </dataValidation>
@@ -1192,4 +1309,1069 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39CEAE83-6772-49FF-BA07-896F93E2851C}">
+  <dimension ref="B1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="8.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9" style="7"/>
+    <col min="4" max="4" width="18.25" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9" style="6"/>
+    <col min="6" max="6" width="10.625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="20.125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="35.875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="9.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+    </row>
+    <row r="2" spans="2:8">
+      <c r="B2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="19.5" thickTop="1">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="2"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="2"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="2"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="2"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="2"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="2"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="2"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="2"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="2"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="2"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="2"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="2"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="2"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="2"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="2"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="2"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="2"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="2"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="1"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E9" xr:uid="{2B41A575-A602-4DE7-9A4E-C0D4D6AF4EB6}">
+      <formula1>"数値,文字列,日付時刻"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E1048576" xr:uid="{B6E26812-DA3C-4D7A-8BA3-0C7E31A826E2}">
+      <formula1>"数値,文字列,日付時刻,真偽"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C8 C10:C1048576" xr:uid="{05BC7E42-1427-4E69-9798-62F6872DBF0C}">
+      <formula1>"●"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A927ADC5-F92C-4019-9B26-0D256548BD92}">
+  <dimension ref="B1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="8.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9" style="7"/>
+    <col min="4" max="4" width="18.25" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9" style="6"/>
+    <col min="6" max="6" width="10.625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="20.125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="35.875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="9.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+    </row>
+    <row r="2" spans="2:8">
+      <c r="B2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="19.5" thickTop="1">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="2"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="2"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="2"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="2"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="2"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="2"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="2"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="2"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="2"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="2"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="2"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="2"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="2"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="2"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="2"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="2"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="2"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="2"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="1"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E9" xr:uid="{6BF161F2-14C4-4848-93F5-A211E77FA645}">
+      <formula1>"数値,文字列,日付時刻"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E1048576" xr:uid="{D9ACCFE5-13A5-4714-85B7-298745444E5F}">
+      <formula1>"数値,文字列,日付時刻,真偽"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C8 C10:C1048576" xr:uid="{F8D07439-E83B-4D24-8161-80D129C7F877}">
+      <formula1>"●"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA6A380-568C-45E0-82C2-E70B4C9CE858}">
+  <dimension ref="B1:H30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="8.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9" style="7"/>
+    <col min="4" max="4" width="18.25" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9" style="6"/>
+    <col min="6" max="6" width="10.625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="20.125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="35.875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="9.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+    </row>
+    <row r="2" spans="2:8">
+      <c r="B2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="19.5" thickTop="1">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="2"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="2"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="2"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="2"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="2"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="2"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="2"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="2"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="2"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="2"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="2"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="2"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="2"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="2"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="2"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="2"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="2"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="2"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="1"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E9" xr:uid="{0B6167AA-A3D7-4C1A-9968-E18866E0B133}">
+      <formula1>"数値,文字列,日付時刻"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E1048576" xr:uid="{F26D2FC5-16FA-4614-9409-15BCB374F3A1}">
+      <formula1>"数値,文字列,日付時刻,真偽"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C8 C10:C1048576" xr:uid="{EBD2DCB4-43F0-4E9C-A265-C37EB757CAA6}">
+      <formula1>"●"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>